--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4696.803920816797</v>
+        <v>934663.9802425437</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4696.803920816797</v>
+        <v>934663.9802425437</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96343.63620748816</v>
+        <v>6685139.612216294</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96343.63620748816</v>
+        <v>6685139.612216294</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419372521.451512</v>
+        <v>51583047.61270234</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16292.57082045017</v>
+        <v>1330106.750037546</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30690.07737273627</v>
+        <v>2332405.749322915</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44952.03849441325</v>
+        <v>3334704.748608285</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59395.93947708829</v>
+        <v>4336116.761802559</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>73839.84045976329</v>
+        <v>5337528.774996831</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88283.7414424383</v>
+        <v>6338940.788191103</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>102727.6424251133</v>
+        <v>7340352.801385373</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>117171.5434077884</v>
+        <v>8341764.814579641</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>131623.6988699551</v>
+        <v>9338718.487469183</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>146081.3977664652</v>
+        <v>10336775.30379307</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>160539.0966629753</v>
+        <v>11334832.12011696</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>174996.7955594854</v>
+        <v>12332888.93644084</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>189454.4944559956</v>
+        <v>13330945.75276474</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>203912.1933525057</v>
+        <v>14329002.56908863</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218369.892249016</v>
+        <v>15327059.38541253</v>
       </c>
     </row>
   </sheetData>
